--- a/uploads/2021_another_school_template.xlsx
+++ b/uploads/2021_another_school_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lincoln Uni\Computing\639\pj2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98858EE-9953-401A-8D0B-0B98741E90D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90384E96-D453-4FDB-9411-77DB91D098F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="87">
   <si>
     <t>CU puni name (name of school or rūnanga):</t>
   </si>
@@ -57,6 +57,18 @@
   </si>
   <si>
     <t>graduation2</t>
+  </si>
+  <si>
+    <t>zxc</t>
+  </si>
+  <si>
+    <t>asdfsadf</t>
+  </si>
+  <si>
+    <t>ewrwer</t>
+  </si>
+  <si>
+    <t>sadfasdf</t>
   </si>
   <si>
     <t>#</t>
@@ -173,9 +185,6 @@
     <t>NZ00577</t>
   </si>
   <si>
-    <t>sadfasdf</t>
-  </si>
-  <si>
     <t>asdfasdf</t>
   </si>
   <si>
@@ -258,6 +267,24 @@
   </si>
   <si>
     <t>222</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>asdf</t>
+  </si>
+  <si>
+    <t>fasdf</t>
+  </si>
+  <si>
+    <t>cvcvcc</t>
+  </si>
+  <si>
+    <t>asdfasdfsss</t>
+  </si>
+  <si>
+    <t>sdfd</t>
   </si>
   <si>
     <t>attend</t>
@@ -904,11 +931,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y958"/>
+  <dimension ref="A1:AC958"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T17" sqref="T17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -934,7 +961,7 @@
     <col min="24" max="16384" width="12.59765625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -960,7 +987,7 @@
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
     </row>
-    <row r="2" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -986,7 +1013,7 @@
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
     </row>
-    <row r="3" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>4</v>
       </c>
@@ -1012,7 +1039,7 @@
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
     </row>
-    <row r="4" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>6</v>
       </c>
@@ -1036,7 +1063,7 @@
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
     </row>
-    <row r="5" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1065,73 +1092,85 @@
       <c r="Y5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J6" s="8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="U6" s="8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="W6">
         <v>10000</v>
@@ -1142,32 +1181,44 @@
       <c r="Y6">
         <v>10002</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Z6">
+        <v>10004</v>
+      </c>
+      <c r="AA6">
+        <v>10005</v>
+      </c>
+      <c r="AB6">
+        <v>10006</v>
+      </c>
+      <c r="AC6">
+        <v>10007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>100117</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E7" s="15">
         <v>12</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="19" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J7" s="9">
         <v>44285</v>
@@ -1193,31 +1244,31 @@
       <c r="U7" s="16"/>
       <c r="V7" s="16"/>
     </row>
-    <row r="8" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>100118</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E8" s="14">
         <v>10</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="19" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J8" s="9">
         <v>43896</v>
@@ -1242,35 +1293,32 @@
       <c r="T8" s="15"/>
       <c r="U8" s="16"/>
       <c r="V8" s="16"/>
-      <c r="W8" s="24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>100119</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E9" s="15">
         <v>8</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="19" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J9" s="9">
         <v>44285</v>
@@ -1295,35 +1343,32 @@
       <c r="T9" s="15"/>
       <c r="U9" s="16"/>
       <c r="V9" s="16"/>
-      <c r="X9" s="24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>100120</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E10" s="15">
         <v>8</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J10" s="33">
         <v>44285</v>
@@ -1347,31 +1392,31 @@
       <c r="S10" s="15"/>
       <c r="T10" s="15"/>
     </row>
-    <row r="11" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>100121</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E11" s="15">
         <v>10</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H11" s="16"/>
       <c r="I11" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J11" s="33">
         <v>43896</v>
@@ -1394,38 +1439,32 @@
       <c r="R11" s="15"/>
       <c r="S11" s="15"/>
       <c r="T11" s="15"/>
-      <c r="W11" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y11" s="24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>100127</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E12" s="15">
         <v>12</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J12" s="33">
         <v>44285</v>
@@ -1448,35 +1487,32 @@
       <c r="R12" s="15"/>
       <c r="S12" s="15"/>
       <c r="T12" s="15"/>
-      <c r="X12" s="24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>100128</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E13" s="15">
         <v>10</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J13" s="33">
         <v>43896</v>
@@ -1500,31 +1536,31 @@
       <c r="S13" s="15"/>
       <c r="T13" s="15"/>
     </row>
-    <row r="14" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>100129</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E14" s="15">
         <v>8</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H14" s="16"/>
       <c r="I14" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J14" s="33">
         <v>44285</v>
@@ -1547,32 +1583,35 @@
       <c r="R14" s="15"/>
       <c r="S14" s="15"/>
       <c r="T14" s="15"/>
-    </row>
-    <row r="15" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA14" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>100130</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E15" s="15">
         <v>8</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H15" s="16"/>
       <c r="I15" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J15" s="33">
         <v>44285</v>
@@ -1595,38 +1634,32 @@
       <c r="R15" s="15"/>
       <c r="S15" s="15"/>
       <c r="T15" s="15"/>
-      <c r="W15" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="X15" s="24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:29" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>100131</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E16" s="15">
         <v>10</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J16" s="33">
         <v>43896</v>
@@ -1649,32 +1682,35 @@
       <c r="R16" s="15"/>
       <c r="S16" s="15"/>
       <c r="T16" s="15"/>
-    </row>
-    <row r="17" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Y16" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>100137</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E17" s="15">
         <v>12</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H17" s="16"/>
       <c r="I17" s="16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J17" s="33">
         <v>44285</v>
@@ -1697,35 +1733,32 @@
       <c r="R17" s="15"/>
       <c r="S17" s="15"/>
       <c r="T17" s="15"/>
-      <c r="Y17" s="24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>100138</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E18" s="15">
         <v>10</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H18" s="16"/>
       <c r="I18" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J18" s="33">
         <v>43896</v>
@@ -1748,35 +1781,32 @@
       <c r="R18" s="15"/>
       <c r="S18" s="15"/>
       <c r="T18" s="15"/>
-      <c r="X18" s="24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>100139</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E19" s="15">
         <v>8</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J19" s="33">
         <v>44285</v>
@@ -1800,31 +1830,31 @@
       <c r="S19" s="15"/>
       <c r="T19" s="15"/>
     </row>
-    <row r="20" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>100140</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E20" s="15">
         <v>8</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H20" s="16"/>
       <c r="I20" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J20" s="33">
         <v>44285</v>
@@ -1847,35 +1877,32 @@
       <c r="R20" s="15"/>
       <c r="S20" s="15"/>
       <c r="T20" s="15"/>
-      <c r="Y20" s="24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
-        <v>100141</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E21" s="15">
         <v>10</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H21" s="16"/>
       <c r="I21" s="16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J21" s="33">
         <v>43896</v>
@@ -1893,16 +1920,29 @@
         <v>1</v>
       </c>
       <c r="O21" s="26"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="W21" s="24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P21" s="15">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="15">
+        <v>3</v>
+      </c>
+      <c r="R21" s="15">
+        <v>4</v>
+      </c>
+      <c r="S21" s="15">
+        <v>5</v>
+      </c>
+      <c r="T21" s="15">
+        <v>5</v>
+      </c>
+      <c r="U21" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="V21" s="30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
@@ -1921,7 +1961,7 @@
       <c r="S22" s="15"/>
       <c r="T22" s="15"/>
     </row>
-    <row r="23" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
@@ -1940,7 +1980,7 @@
       <c r="S23" s="15"/>
       <c r="T23" s="15"/>
     </row>
-    <row r="24" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
@@ -1959,7 +1999,7 @@
       <c r="S24" s="15"/>
       <c r="T24" s="15"/>
     </row>
-    <row r="25" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="E25" s="15"/>
       <c r="I25" s="16"/>
@@ -1974,7 +2014,7 @@
       <c r="S25" s="15"/>
       <c r="T25" s="15"/>
     </row>
-    <row r="26" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="E26" s="15"/>
       <c r="I26" s="16"/>
@@ -1989,7 +2029,7 @@
       <c r="S26" s="15"/>
       <c r="T26" s="15"/>
     </row>
-    <row r="27" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="E27" s="15"/>
       <c r="I27" s="16"/>
@@ -2004,7 +2044,7 @@
       <c r="S27" s="15"/>
       <c r="T27" s="15"/>
     </row>
-    <row r="28" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="E28" s="15"/>
       <c r="I28" s="16"/>
@@ -2019,7 +2059,7 @@
       <c r="S28" s="15"/>
       <c r="T28" s="15"/>
     </row>
-    <row r="29" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="E29" s="15"/>
       <c r="I29" s="16"/>
@@ -2034,7 +2074,7 @@
       <c r="S29" s="15"/>
       <c r="T29" s="15"/>
     </row>
-    <row r="30" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="E30" s="15"/>
       <c r="I30" s="16"/>
@@ -2049,7 +2089,7 @@
       <c r="S30" s="15"/>
       <c r="T30" s="15"/>
     </row>
-    <row r="31" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="E31" s="15"/>
       <c r="I31" s="16"/>
@@ -2064,7 +2104,7 @@
       <c r="S31" s="15"/>
       <c r="T31" s="15"/>
     </row>
-    <row r="32" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="E32" s="15"/>
       <c r="I32" s="16"/>
@@ -15091,16 +15131,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -15108,238 +15148,238 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E6" s="20"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -15402,87 +15442,87 @@
   <sheetData>
     <row r="1" spans="1:1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16478,7 +16518,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16486,19 +16526,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B1" s="34" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -16512,7 +16552,7 @@
         <v>44345</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -16526,10 +16566,10 @@
         <v>44345</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -16543,7 +16583,75 @@
         <v>44345</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="35">
+        <v>44338</v>
+      </c>
+      <c r="D5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="35">
+        <v>44341</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="35">
+        <v>44345</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10007</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="35">
+        <v>44330</v>
+      </c>
+      <c r="D8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
